--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pf4-Procr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pf4-Procr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,16 +88,13 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pf4</t>
   </si>
   <si>
     <t>Procr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H2">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I2">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J2">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.51774953226656</v>
+        <v>7.064502333333333</v>
       </c>
       <c r="N2">
-        <v>5.51774953226656</v>
+        <v>21.193507</v>
       </c>
       <c r="O2">
-        <v>0.2166229667997607</v>
+        <v>0.2476561179404803</v>
       </c>
       <c r="P2">
-        <v>0.2166229667997607</v>
+        <v>0.3052764709046203</v>
       </c>
       <c r="Q2">
-        <v>4.374026463679035</v>
+        <v>18.59290356238045</v>
       </c>
       <c r="R2">
-        <v>4.374026463679035</v>
+        <v>167.336132061424</v>
       </c>
       <c r="S2">
-        <v>0.0008560902274133557</v>
+        <v>0.002640562393271751</v>
       </c>
       <c r="T2">
-        <v>0.0008560902274133557</v>
+        <v>0.003272451518110505</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H3">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I3">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J3">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.70229563352981</v>
+        <v>3.716784666666667</v>
       </c>
       <c r="N3">
-        <v>3.70229563352981</v>
+        <v>11.150354</v>
       </c>
       <c r="O3">
-        <v>0.1453495232821095</v>
+        <v>0.1302971417284599</v>
       </c>
       <c r="P3">
-        <v>0.1453495232821095</v>
+        <v>0.1606124327822298</v>
       </c>
       <c r="Q3">
-        <v>2.934881147236606</v>
+        <v>9.78212131708089</v>
       </c>
       <c r="R3">
-        <v>2.934881147236606</v>
+        <v>88.03909185372801</v>
       </c>
       <c r="S3">
-        <v>0.0005744188083068088</v>
+        <v>0.001389255937871313</v>
       </c>
       <c r="T3">
-        <v>0.0005744188083068088</v>
+        <v>0.001721706222324108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H4">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I4">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J4">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.873438895359867</v>
+        <v>1.315098</v>
       </c>
       <c r="N4">
-        <v>0.873438895359867</v>
+        <v>3.945294</v>
       </c>
       <c r="O4">
-        <v>0.03429059686829214</v>
+        <v>0.0461026198341723</v>
       </c>
       <c r="P4">
-        <v>0.03429059686829214</v>
+        <v>0.05682898205573872</v>
       </c>
       <c r="Q4">
-        <v>0.6923918565657137</v>
+        <v>3.461176617312001</v>
       </c>
       <c r="R4">
-        <v>0.6923918565657137</v>
+        <v>31.150589555808</v>
       </c>
       <c r="S4">
-        <v>0.0001355158472104739</v>
+        <v>0.0004915559735725042</v>
       </c>
       <c r="T4">
-        <v>0.0001355158472104739</v>
+        <v>0.0006091857916527108</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7927192849368589</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H5">
-        <v>0.7927192849368589</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I5">
-        <v>0.003951982747077313</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J5">
-        <v>0.003951982747077313</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>15.3781896666207</v>
+        <v>0.276692</v>
       </c>
       <c r="N5">
-        <v>15.3781896666207</v>
+        <v>0.830076</v>
       </c>
       <c r="O5">
-        <v>0.6037369130498377</v>
+        <v>0.009699829280522668</v>
       </c>
       <c r="P5">
-        <v>0.6037369130498377</v>
+        <v>0.01195661821625952</v>
       </c>
       <c r="Q5">
-        <v>12.19058751614696</v>
+        <v>0.7282194031146667</v>
       </c>
       <c r="R5">
-        <v>12.19058751614696</v>
+        <v>6.553974628032001</v>
       </c>
       <c r="S5">
-        <v>0.002385957864146674</v>
+        <v>0.0001034216502798448</v>
       </c>
       <c r="T5">
-        <v>0.002385957864146674</v>
+        <v>0.0001281705508364942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>79.3373372856165</v>
+        <v>2.631877333333334</v>
       </c>
       <c r="H6">
-        <v>79.3373372856165</v>
+        <v>7.895632000000001</v>
       </c>
       <c r="I6">
-        <v>0.3955243604005217</v>
+        <v>0.01066221345642817</v>
       </c>
       <c r="J6">
-        <v>0.3955243604005217</v>
+        <v>0.01071963230056122</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.51774953226656</v>
+        <v>16.1523735</v>
       </c>
       <c r="N6">
-        <v>5.51774953226656</v>
+        <v>32.304747</v>
       </c>
       <c r="O6">
-        <v>0.2166229667997607</v>
+        <v>0.5662442912163648</v>
       </c>
       <c r="P6">
-        <v>0.2166229667997607</v>
+        <v>0.4653254960411516</v>
       </c>
       <c r="Q6">
-        <v>437.7635556989848</v>
+        <v>42.511065694184</v>
       </c>
       <c r="R6">
-        <v>437.7635556989848</v>
+        <v>255.066394165104</v>
       </c>
       <c r="S6">
-        <v>0.08567966039153879</v>
+        <v>0.006037417501432755</v>
       </c>
       <c r="T6">
-        <v>0.08567966039153879</v>
+        <v>0.004988118217637401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H7">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I7">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J7">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.70229563352981</v>
+        <v>7.064502333333333</v>
       </c>
       <c r="N7">
-        <v>3.70229563352981</v>
+        <v>21.193507</v>
       </c>
       <c r="O7">
-        <v>0.1453495232821095</v>
+        <v>0.2476561179404803</v>
       </c>
       <c r="P7">
-        <v>0.1453495232821095</v>
+        <v>0.3052764709046203</v>
       </c>
       <c r="Q7">
-        <v>293.7302774084197</v>
+        <v>7.207831666340222</v>
       </c>
       <c r="R7">
-        <v>293.7302774084197</v>
+        <v>64.87048499706199</v>
       </c>
       <c r="S7">
-        <v>0.05748927723067708</v>
+        <v>0.001023655566830385</v>
       </c>
       <c r="T7">
-        <v>0.05748927723067708</v>
+        <v>0.001268617330244473</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H8">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I8">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J8">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.873438895359867</v>
+        <v>3.716784666666667</v>
       </c>
       <c r="N8">
-        <v>0.873438895359867</v>
+        <v>11.150354</v>
       </c>
       <c r="O8">
-        <v>0.03429059686829214</v>
+        <v>0.1302971417284599</v>
       </c>
       <c r="P8">
-        <v>0.03429059686829214</v>
+        <v>0.1606124327822298</v>
       </c>
       <c r="Q8">
-        <v>69.29631623954207</v>
+        <v>3.792193271840445</v>
       </c>
       <c r="R8">
-        <v>69.29631623954207</v>
+        <v>34.129739446564</v>
       </c>
       <c r="S8">
-        <v>0.01356276639408338</v>
+        <v>0.0005385669273249329</v>
       </c>
       <c r="T8">
-        <v>0.01356276639408338</v>
+        <v>0.0006674465119322054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>79.3373372856165</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H9">
-        <v>79.3373372856165</v>
+        <v>3.060866</v>
       </c>
       <c r="I9">
-        <v>0.3955243604005217</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J9">
-        <v>0.3955243604005217</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.3781896666207</v>
+        <v>1.315098</v>
       </c>
       <c r="N9">
-        <v>15.3781896666207</v>
+        <v>3.945294</v>
       </c>
       <c r="O9">
-        <v>0.6037369130498377</v>
+        <v>0.0461026198341723</v>
       </c>
       <c r="P9">
-        <v>0.6037369130498377</v>
+        <v>0.05682898205573872</v>
       </c>
       <c r="Q9">
-        <v>1220.064620422869</v>
+        <v>1.341779584956</v>
       </c>
       <c r="R9">
-        <v>1220.064620422869</v>
+        <v>12.076016264604</v>
       </c>
       <c r="S9">
-        <v>0.2387926563842224</v>
+        <v>0.0001905594088737895</v>
       </c>
       <c r="T9">
-        <v>0.2387926563842224</v>
+        <v>0.0002361604590174499</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>120.457682716293</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H10">
-        <v>120.457682716293</v>
+        <v>3.060866</v>
       </c>
       <c r="I10">
-        <v>0.6005236568524009</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J10">
-        <v>0.6005236568524009</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.51774953226656</v>
+        <v>0.276692</v>
       </c>
       <c r="N10">
-        <v>5.51774953226656</v>
+        <v>0.830076</v>
       </c>
       <c r="O10">
-        <v>0.2166229667997607</v>
+        <v>0.009699829280522668</v>
       </c>
       <c r="P10">
-        <v>0.2166229667997607</v>
+        <v>0.01195661821625952</v>
       </c>
       <c r="Q10">
-        <v>664.6553224657393</v>
+        <v>0.2823057117573333</v>
       </c>
       <c r="R10">
-        <v>664.6553224657393</v>
+        <v>2.540751405816</v>
       </c>
       <c r="S10">
-        <v>0.1300872161808085</v>
+        <v>4.009303029896369E-05</v>
       </c>
       <c r="T10">
-        <v>0.1300872161808085</v>
+        <v>4.968733107833504E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>120.457682716293</v>
+        <v>1.020288666666667</v>
       </c>
       <c r="H11">
-        <v>120.457682716293</v>
+        <v>3.060866</v>
       </c>
       <c r="I11">
-        <v>0.6005236568524009</v>
+        <v>0.00413337483985113</v>
       </c>
       <c r="J11">
-        <v>0.6005236568524009</v>
+        <v>0.004155634158391579</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.70229563352981</v>
+        <v>16.1523735</v>
       </c>
       <c r="N11">
-        <v>3.70229563352981</v>
+        <v>32.304747</v>
       </c>
       <c r="O11">
-        <v>0.1453495232821095</v>
+        <v>0.5662442912163648</v>
       </c>
       <c r="P11">
-        <v>0.1453495232821095</v>
+        <v>0.4653254960411516</v>
       </c>
       <c r="Q11">
-        <v>445.9699527456508</v>
+        <v>16.480083621817</v>
       </c>
       <c r="R11">
-        <v>445.9699527456508</v>
+        <v>98.880501730902</v>
       </c>
       <c r="S11">
-        <v>0.08728582724312556</v>
+        <v>0.002340499906523058</v>
       </c>
       <c r="T11">
-        <v>0.08728582724312556</v>
+        <v>0.001933722526119115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>120.457682716293</v>
+        <v>110.36247</v>
       </c>
       <c r="H12">
-        <v>120.457682716293</v>
+        <v>331.08741</v>
       </c>
       <c r="I12">
-        <v>0.6005236568524009</v>
+        <v>0.4470984258329099</v>
       </c>
       <c r="J12">
-        <v>0.6005236568524009</v>
+        <v>0.4495061693028696</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.873438895359867</v>
+        <v>7.064502333333333</v>
       </c>
       <c r="N12">
-        <v>0.873438895359867</v>
+        <v>21.193507</v>
       </c>
       <c r="O12">
-        <v>0.03429059686829214</v>
+        <v>0.2476561179404803</v>
       </c>
       <c r="P12">
-        <v>0.03429059686829214</v>
+        <v>0.3052764709046203</v>
       </c>
       <c r="Q12">
-        <v>105.2124253293283</v>
+        <v>779.6559268274299</v>
       </c>
       <c r="R12">
-        <v>105.2124253293283</v>
+        <v>7016.903341446869</v>
       </c>
       <c r="S12">
-        <v>0.02059231462699828</v>
+        <v>0.1107266604790782</v>
       </c>
       <c r="T12">
-        <v>0.02059231462699828</v>
+        <v>0.1372236570146348</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>110.36247</v>
+      </c>
+      <c r="H13">
+        <v>331.08741</v>
+      </c>
+      <c r="I13">
+        <v>0.4470984258329099</v>
+      </c>
+      <c r="J13">
+        <v>0.4495061693028696</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.716784666666667</v>
+      </c>
+      <c r="N13">
+        <v>11.150354</v>
+      </c>
+      <c r="O13">
+        <v>0.1302971417284599</v>
+      </c>
+      <c r="P13">
+        <v>0.1606124327822298</v>
+      </c>
+      <c r="Q13">
+        <v>410.1935362714599</v>
+      </c>
+      <c r="R13">
+        <v>3691.74182644314</v>
+      </c>
+      <c r="S13">
+        <v>0.05825564695732197</v>
+      </c>
+      <c r="T13">
+        <v>0.07219627940235475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>110.36247</v>
+      </c>
+      <c r="H14">
+        <v>331.08741</v>
+      </c>
+      <c r="I14">
+        <v>0.4470984258329099</v>
+      </c>
+      <c r="J14">
+        <v>0.4495061693028696</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.315098</v>
+      </c>
+      <c r="N14">
+        <v>3.945294</v>
+      </c>
+      <c r="O14">
+        <v>0.0461026198341723</v>
+      </c>
+      <c r="P14">
+        <v>0.05682898205573872</v>
+      </c>
+      <c r="Q14">
+        <v>145.13746357206</v>
+      </c>
+      <c r="R14">
+        <v>1306.23717214854</v>
+      </c>
+      <c r="S14">
+        <v>0.02061240875463152</v>
+      </c>
+      <c r="T14">
+        <v>0.02554497802925663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>110.36247</v>
+      </c>
+      <c r="H15">
+        <v>331.08741</v>
+      </c>
+      <c r="I15">
+        <v>0.4470984258329099</v>
+      </c>
+      <c r="J15">
+        <v>0.4495061693028696</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.276692</v>
+      </c>
+      <c r="N15">
+        <v>0.830076</v>
+      </c>
+      <c r="O15">
+        <v>0.009699829280522668</v>
+      </c>
+      <c r="P15">
+        <v>0.01195661821625952</v>
+      </c>
+      <c r="Q15">
+        <v>30.53641254923999</v>
+      </c>
+      <c r="R15">
+        <v>274.82771294316</v>
+      </c>
+      <c r="S15">
+        <v>0.004336778402169651</v>
+      </c>
+      <c r="T15">
+        <v>0.005374573652207726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>120.457682716293</v>
-      </c>
-      <c r="H13">
-        <v>120.457682716293</v>
-      </c>
-      <c r="I13">
-        <v>0.6005236568524009</v>
-      </c>
-      <c r="J13">
-        <v>0.6005236568524009</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.3781896666207</v>
-      </c>
-      <c r="N13">
-        <v>15.3781896666207</v>
-      </c>
-      <c r="O13">
-        <v>0.6037369130498377</v>
-      </c>
-      <c r="P13">
-        <v>0.6037369130498377</v>
-      </c>
-      <c r="Q13">
-        <v>1852.421091612772</v>
-      </c>
-      <c r="R13">
-        <v>1852.421091612772</v>
-      </c>
-      <c r="S13">
-        <v>0.3625582988014686</v>
-      </c>
-      <c r="T13">
-        <v>0.3625582988014686</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>110.36247</v>
+      </c>
+      <c r="H16">
+        <v>331.08741</v>
+      </c>
+      <c r="I16">
+        <v>0.4470984258329099</v>
+      </c>
+      <c r="J16">
+        <v>0.4495061693028696</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.1523735</v>
+      </c>
+      <c r="N16">
+        <v>32.304747</v>
+      </c>
+      <c r="O16">
+        <v>0.5662442912163648</v>
+      </c>
+      <c r="P16">
+        <v>0.4653254960411516</v>
+      </c>
+      <c r="Q16">
+        <v>1782.615835822545</v>
+      </c>
+      <c r="R16">
+        <v>10695.69501493527</v>
+      </c>
+      <c r="S16">
+        <v>0.2531669312397085</v>
+      </c>
+      <c r="T16">
+        <v>0.2091666812044157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>128.860357</v>
+      </c>
+      <c r="H17">
+        <v>386.581071</v>
+      </c>
+      <c r="I17">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J17">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.064502333333333</v>
+      </c>
+      <c r="N17">
+        <v>21.193507</v>
+      </c>
+      <c r="O17">
+        <v>0.2476561179404803</v>
+      </c>
+      <c r="P17">
+        <v>0.3052764709046203</v>
+      </c>
+      <c r="Q17">
+        <v>910.3342927006663</v>
+      </c>
+      <c r="R17">
+        <v>8193.008634305996</v>
+      </c>
+      <c r="S17">
+        <v>0.1292855895555057</v>
+      </c>
+      <c r="T17">
+        <v>0.1602237557002067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>128.860357</v>
+      </c>
+      <c r="H18">
+        <v>386.581071</v>
+      </c>
+      <c r="I18">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J18">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.716784666666667</v>
+      </c>
+      <c r="N18">
+        <v>11.150354</v>
+      </c>
+      <c r="O18">
+        <v>0.1302971417284599</v>
+      </c>
+      <c r="P18">
+        <v>0.1606124327822298</v>
+      </c>
+      <c r="Q18">
+        <v>478.9461990387927</v>
+      </c>
+      <c r="R18">
+        <v>4310.515791349134</v>
+      </c>
+      <c r="S18">
+        <v>0.06801989357601794</v>
+      </c>
+      <c r="T18">
+        <v>0.08429711964456015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>128.860357</v>
+      </c>
+      <c r="H19">
+        <v>386.581071</v>
+      </c>
+      <c r="I19">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J19">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.315098</v>
+      </c>
+      <c r="N19">
+        <v>3.945294</v>
+      </c>
+      <c r="O19">
+        <v>0.0461026198341723</v>
+      </c>
+      <c r="P19">
+        <v>0.05682898205573872</v>
+      </c>
+      <c r="Q19">
+        <v>169.463997769986</v>
+      </c>
+      <c r="R19">
+        <v>1525.175979929874</v>
+      </c>
+      <c r="S19">
+        <v>0.02406726082473275</v>
+      </c>
+      <c r="T19">
+        <v>0.02982657952841365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>128.860357</v>
+      </c>
+      <c r="H20">
+        <v>386.581071</v>
+      </c>
+      <c r="I20">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J20">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.276692</v>
+      </c>
+      <c r="N20">
+        <v>0.830076</v>
+      </c>
+      <c r="O20">
+        <v>0.009699829280522668</v>
+      </c>
+      <c r="P20">
+        <v>0.01195661821625952</v>
+      </c>
+      <c r="Q20">
+        <v>35.654629899044</v>
+      </c>
+      <c r="R20">
+        <v>320.891669091396</v>
+      </c>
+      <c r="S20">
+        <v>0.005063667142765751</v>
+      </c>
+      <c r="T20">
+        <v>0.006275407568771172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>128.860357</v>
+      </c>
+      <c r="H21">
+        <v>386.581071</v>
+      </c>
+      <c r="I21">
+        <v>0.5220367283096037</v>
+      </c>
+      <c r="J21">
+        <v>0.5248480343913128</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16.1523735</v>
+      </c>
+      <c r="N21">
+        <v>32.304747</v>
+      </c>
+      <c r="O21">
+        <v>0.5662442912163648</v>
+      </c>
+      <c r="P21">
+        <v>0.4653254960411516</v>
+      </c>
+      <c r="Q21">
+        <v>2081.400615607339</v>
+      </c>
+      <c r="R21">
+        <v>12488.40369364404</v>
+      </c>
+      <c r="S21">
+        <v>0.2956003172105815</v>
+      </c>
+      <c r="T21">
+        <v>0.244225171949361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>3.9665605</v>
+      </c>
+      <c r="H22">
+        <v>7.933121</v>
+      </c>
+      <c r="I22">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J22">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.064502333333333</v>
+      </c>
+      <c r="N22">
+        <v>21.193507</v>
+      </c>
+      <c r="O22">
+        <v>0.2476561179404803</v>
+      </c>
+      <c r="P22">
+        <v>0.3052764709046203</v>
+      </c>
+      <c r="Q22">
+        <v>28.02177590755783</v>
+      </c>
+      <c r="R22">
+        <v>168.130655445347</v>
+      </c>
+      <c r="S22">
+        <v>0.003979649945794279</v>
+      </c>
+      <c r="T22">
+        <v>0.003287989341423755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>3.9665605</v>
+      </c>
+      <c r="H23">
+        <v>7.933121</v>
+      </c>
+      <c r="I23">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J23">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.716784666666667</v>
+      </c>
+      <c r="N23">
+        <v>11.150354</v>
+      </c>
+      <c r="O23">
+        <v>0.1302971417284599</v>
+      </c>
+      <c r="P23">
+        <v>0.1606124327822298</v>
+      </c>
+      <c r="Q23">
+        <v>14.74285124580567</v>
+      </c>
+      <c r="R23">
+        <v>88.457107474834</v>
+      </c>
+      <c r="S23">
+        <v>0.002093778329923737</v>
+      </c>
+      <c r="T23">
+        <v>0.001729881001058566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>3.9665605</v>
+      </c>
+      <c r="H24">
+        <v>7.933121</v>
+      </c>
+      <c r="I24">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J24">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.315098</v>
+      </c>
+      <c r="N24">
+        <v>3.945294</v>
+      </c>
+      <c r="O24">
+        <v>0.0461026198341723</v>
+      </c>
+      <c r="P24">
+        <v>0.05682898205573872</v>
+      </c>
+      <c r="Q24">
+        <v>5.216415780429</v>
+      </c>
+      <c r="R24">
+        <v>31.298494682574</v>
+      </c>
+      <c r="S24">
+        <v>0.0007408348723617331</v>
+      </c>
+      <c r="T24">
+        <v>0.0006120782473982759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>3.9665605</v>
+      </c>
+      <c r="H25">
+        <v>7.933121</v>
+      </c>
+      <c r="I25">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J25">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.276692</v>
+      </c>
+      <c r="N25">
+        <v>0.830076</v>
+      </c>
+      <c r="O25">
+        <v>0.009699829280522668</v>
+      </c>
+      <c r="P25">
+        <v>0.01195661821625952</v>
+      </c>
+      <c r="Q25">
+        <v>1.097515557866</v>
+      </c>
+      <c r="R25">
+        <v>6.585093347196</v>
+      </c>
+      <c r="S25">
+        <v>0.0001558690550084576</v>
+      </c>
+      <c r="T25">
+        <v>0.00012877911336579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>3.9665605</v>
+      </c>
+      <c r="H26">
+        <v>7.933121</v>
+      </c>
+      <c r="I26">
+        <v>0.01606925756120717</v>
+      </c>
+      <c r="J26">
+        <v>0.01077052984686476</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>16.1523735</v>
+      </c>
+      <c r="N26">
+        <v>32.304747</v>
+      </c>
+      <c r="O26">
+        <v>0.5662442912163648</v>
+      </c>
+      <c r="P26">
+        <v>0.4653254960411516</v>
+      </c>
+      <c r="Q26">
+        <v>64.06936670634674</v>
+      </c>
+      <c r="R26">
+        <v>256.277466825387</v>
+      </c>
+      <c r="S26">
+        <v>0.009099125358118966</v>
+      </c>
+      <c r="T26">
+        <v>0.005011802143618373</v>
       </c>
     </row>
   </sheetData>
